--- a/result/test_result.txt.xlsx
+++ b/result/test_result.txt.xlsx
@@ -13,53 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>F_1 score</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Macro</t>
-  </si>
-  <si>
-    <t>Micro</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -83,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,129 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>0.5250501002004008</v>
-      </c>
-      <c r="D2">
-        <v>0.5088790233074362</v>
-      </c>
-      <c r="E2">
-        <v>0.5422826729745712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0.3876447876447877</v>
-      </c>
-      <c r="D3">
-        <v>0.4547101449275363</v>
-      </c>
-      <c r="E3">
-        <v>0.3378196500672948</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0.5368143150484013</v>
-      </c>
-      <c r="D4">
-        <v>0.5469216975493126</v>
-      </c>
-      <c r="E4">
-        <v>0.527073732718894</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0.8962129770617417</v>
-      </c>
-      <c r="D5">
-        <v>0.8899619549312262</v>
-      </c>
-      <c r="E5">
-        <v>0.9025524337158686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.588556634535305</v>
-      </c>
-      <c r="D6">
-        <v>0.6001182051788778</v>
-      </c>
-      <c r="E6">
-        <v>0.5774321223691572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.5082347200195194</v>
-      </c>
-      <c r="D7">
-        <v>0.5172585050906382</v>
-      </c>
-      <c r="E7">
-        <v>0.4995203836930456</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/test_result.txt.xlsx
+++ b/result/test_result.txt.xlsx
@@ -13,10 +13,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>F_1 score</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>&lt;PAD&gt;</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +86,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +404,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0.8495222929936306</v>
+      </c>
+      <c r="D2">
+        <v>0.7673498741459907</v>
+      </c>
+      <c r="E2">
+        <v>0.9514043691484618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.1011494252873563</v>
+      </c>
+      <c r="D3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E3">
+        <v>0.06145251396648044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0.4251968503937008</v>
+      </c>
+      <c r="D5">
+        <v>0.5487804878048781</v>
+      </c>
+      <c r="E5">
+        <v>0.3470437017994858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0.2941980896047049</v>
+      </c>
+      <c r="D7">
+        <v>0.3203689295330309</v>
+      </c>
+      <c r="E7">
+        <v>0.2719801169828856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0.1602040816326531</v>
+      </c>
+      <c r="D8">
+        <v>0.1618556701030928</v>
+      </c>
+      <c r="E8">
+        <v>0.1585858585858586</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/test_result.txt.xlsx
+++ b/result/test_result.txt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -28,19 +28,10 @@
     <t>Recall</t>
   </si>
   <si>
+    <t>PUNCT</t>
+  </si>
+  <si>
     <t>O</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>&lt;PAD&gt;</t>
   </si>
   <si>
     <t>Macro</t>
@@ -404,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.8495222929936306</v>
+        <v>0.7570594543071607</v>
       </c>
       <c r="D2">
-        <v>0.7673498741459907</v>
+        <v>0.7428103811082535</v>
       </c>
       <c r="E2">
-        <v>0.9514043691484618</v>
+        <v>0.7718658892128279</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.1011494252873563</v>
+        <v>0.8966181615372915</v>
       </c>
       <c r="D3">
-        <v>0.2857142857142857</v>
+        <v>0.9039975462631633</v>
       </c>
       <c r="E3">
-        <v>0.06145251396648044</v>
+        <v>0.8893582780124724</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.8269923173345501</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.8234039636857085</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8306120836126502</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,64 +474,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.4251968503937008</v>
+        <v>0.7570594543071607</v>
       </c>
       <c r="D5">
-        <v>0.5487804878048781</v>
+        <v>0.7428103811082535</v>
       </c>
       <c r="E5">
-        <v>0.3470437017994858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.2941980896047049</v>
-      </c>
-      <c r="D7">
-        <v>0.3203689295330309</v>
-      </c>
-      <c r="E7">
-        <v>0.2719801169828856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0.1602040816326531</v>
-      </c>
-      <c r="D8">
-        <v>0.1618556701030928</v>
-      </c>
-      <c r="E8">
-        <v>0.1585858585858586</v>
+        <v>0.7718658892128279</v>
       </c>
     </row>
   </sheetData>
